--- a/data/trans_dic/P23_11_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_11_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,8%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>7,1%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>9,15%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>8,15%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,49</t>
+          <t>2,31; 8,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,86</t>
+          <t>1,38; 3,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,78</t>
+          <t>1,6; 4,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,93</t>
+          <t>2,36; 6,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,56</t>
+          <t>5,31; 10,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,01</t>
+          <t>6,5; 12,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,31</t>
+          <t>4,7; 8,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,32</t>
+          <t>3,13; 6,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,89</t>
+          <t>4,83; 8,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,53</t>
+          <t>4,76; 9,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,91</t>
+          <t>7,29; 11,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,99</t>
+          <t>8,1; 12,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 7,23</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 4,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 5,87</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 6,99</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 9,93</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 11,34</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,67%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>10,21%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>7,82%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,09</t>
+          <t>1,86; 7,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,41</t>
+          <t>2,63; 7,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,84</t>
+          <t>2,04; 6,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 10,45</t>
+          <t>2,84; 9,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,33</t>
+          <t>2,98; 10,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,39</t>
+          <t>4,1; 10,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,16</t>
+          <t>5,9; 12,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 16,4</t>
+          <t>3,65; 7,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,93</t>
+          <t>4,34; 8,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,7</t>
+          <t>4,5; 9,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,2</t>
+          <t>6,28; 15,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,41</t>
+          <t>7,15; 15,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 8,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 6,64</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 6,11</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 8,61</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 11,07</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 11,84</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,51%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>0,0; 5,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,47</t>
+          <t>0,49; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 20,95</t>
+          <t>0,67; 21,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,85; 8,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 8,13</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,0</t>
+          <t>1,67; 8,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,78; 9,61</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 10,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 11,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 5,71</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 5,89</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 15,08</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 5,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 5,73</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 17,24</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 7,85</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,75%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>9,38%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>8,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,56</t>
+          <t>2,24; 5,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,48</t>
+          <t>2,13; 4,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,55</t>
+          <t>2,29; 5,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,74</t>
+          <t>3,01; 6,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,32</t>
+          <t>5,06; 8,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,98</t>
+          <t>6,61; 10,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,43</t>
+          <t>5,54; 8,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,41</t>
+          <t>3,97; 6,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,31</t>
+          <t>5,17; 7,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 4,77</t>
+          <t>5,14; 8,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,87</t>
+          <t>7,57; 11,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,82</t>
+          <t>8,29; 11,84</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 6,59</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 4,91</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 6,05</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 6,81</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 9,52</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 10,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,24%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60864</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35584</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41762</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59547</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15504</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19603</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>107376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>75388</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112032</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>117452</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20817</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22441</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>168240</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>110972</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>153793</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>176999</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>36321</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>42043</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35785; 129530</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20426; 57485</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24858; 74528</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36868; 96285</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11593; 22226</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14332; 27349</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78714; 145303</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53002; 101798</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84240; 142697</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>82519; 156144</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16602; 26396</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18362; 27360</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>130030; 233151</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85613; 144614</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>120575; 193312</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>135093; 230438</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>29442; 44255</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>35330; 50709</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>43219</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55256</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43773</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67737</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5091</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>109105</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69059</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>79860</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>85422</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6427</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6756</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>152324</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>124315</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>123632</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>153159</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10405</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11847</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23187; 96005</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33363; 94389</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26316; 83219</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37358; 129623</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2093; 7105</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2934; 7866</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>78085; 163843</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>47145; 93726</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>56983; 108597</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>60065; 126918</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3950; 9828</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4527; 9927</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>112978; 221765</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>92665; 170052</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>91423; 159011</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>107357; 228109</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7202; 14739</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8585; 15983</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6254</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6313</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24800</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16568</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21243</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22450</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20169</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>22822</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>27556</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>47250</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>32522</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22101</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1933; 17417</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2672; 87502</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3303; 31195</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6591; 33961</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10597; 36688</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11498; 41954</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8813; 42550</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10772; 44077</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14754; 44550</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>22994; 136263</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16979; 60769</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>110337</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>97152</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110334</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>139637</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19483</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24694</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>233049</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>165691</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>214341</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>223043</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27243</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29196</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>343386</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>262843</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>324675</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>362680</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>46726</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>53890</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>71334; 181741</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>66987; 142017</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>74045; 176323</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>98386; 215610</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14589; 25481</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19295; 31725</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>188107; 288859</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>133498; 205728</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>178245; 255123</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>177589; 279277</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21981; 33617</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24054; 34346</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>284729; 433316</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>219665; 319861</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>273135; 404900</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>298226; 457767</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>39044; 55129</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>45771; 63439</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
